--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf15-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf15-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Fgf15</t>
+  </si>
+  <si>
+    <t>Fgfr2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Fgf15</t>
-  </si>
-  <si>
-    <t>Fgfr2</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06665</v>
+        <v>0.0005903333333333333</v>
       </c>
       <c r="H2">
-        <v>0.19995</v>
+        <v>0.001771</v>
       </c>
       <c r="I2">
-        <v>0.7218046741319933</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7218046741319933</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4871643333333333</v>
+        <v>0.05601</v>
       </c>
       <c r="N2">
-        <v>1.461493</v>
+        <v>0.16803</v>
       </c>
       <c r="O2">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="P2">
-        <v>0.1914458468300136</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="Q2">
-        <v>0.03246950281666666</v>
+        <v>3.306457E-05</v>
       </c>
       <c r="R2">
-        <v>0.29222552535</v>
+        <v>0.00029758113</v>
       </c>
       <c r="S2">
-        <v>0.1381865070850615</v>
+        <v>0.02710547761971223</v>
       </c>
       <c r="T2">
-        <v>0.1381865070850615</v>
+        <v>0.02710547761971223</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06665</v>
+        <v>0.0005903333333333333</v>
       </c>
       <c r="H3">
-        <v>0.19995</v>
+        <v>0.001771</v>
       </c>
       <c r="I3">
-        <v>0.7218046741319933</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.7218046741319933</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>1.864751</v>
       </c>
       <c r="N3">
-        <v>5.594252999999999</v>
+        <v>5.594253</v>
       </c>
       <c r="O3">
-        <v>0.7328098752209856</v>
+        <v>0.902427539668559</v>
       </c>
       <c r="P3">
-        <v>0.7328098752209857</v>
+        <v>0.9024275396685592</v>
       </c>
       <c r="Q3">
-        <v>0.12428565415</v>
+        <v>0.001100824673666667</v>
       </c>
       <c r="R3">
-        <v>1.11857088735</v>
+        <v>0.009907422063</v>
       </c>
       <c r="S3">
-        <v>0.5289455931845902</v>
+        <v>0.902427539668559</v>
       </c>
       <c r="T3">
-        <v>0.5289455931845903</v>
+        <v>0.9024275396685592</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06665</v>
+        <v>0.0005903333333333333</v>
       </c>
       <c r="H4">
-        <v>0.19995</v>
+        <v>0.001771</v>
       </c>
       <c r="I4">
-        <v>0.7218046741319933</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.7218046741319933</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,214 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1927433333333333</v>
+        <v>0.145611</v>
       </c>
       <c r="N4">
-        <v>0.57823</v>
+        <v>0.436833</v>
       </c>
       <c r="O4">
-        <v>0.07574427794900063</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="P4">
-        <v>0.07574427794900064</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="Q4">
-        <v>0.01284634316666667</v>
+        <v>8.595902700000001E-05</v>
       </c>
       <c r="R4">
-        <v>0.1156170885</v>
+        <v>0.000773631243</v>
       </c>
       <c r="S4">
-        <v>0.05467257386234153</v>
+        <v>0.07046698271172858</v>
       </c>
       <c r="T4">
-        <v>0.05467257386234153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>0.025688</v>
-      </c>
-      <c r="H5">
-        <v>0.07706399999999999</v>
-      </c>
-      <c r="I5">
-        <v>0.2781953258680067</v>
-      </c>
-      <c r="J5">
-        <v>0.2781953258680067</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.4871643333333333</v>
-      </c>
-      <c r="N5">
-        <v>1.461493</v>
-      </c>
-      <c r="O5">
-        <v>0.1914458468300136</v>
-      </c>
-      <c r="P5">
-        <v>0.1914458468300136</v>
-      </c>
-      <c r="Q5">
-        <v>0.01251427739466667</v>
-      </c>
-      <c r="R5">
-        <v>0.112628496552</v>
-      </c>
-      <c r="S5">
-        <v>0.05325933974495212</v>
-      </c>
-      <c r="T5">
-        <v>0.05325933974495214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G6">
-        <v>0.025688</v>
-      </c>
-      <c r="H6">
-        <v>0.07706399999999999</v>
-      </c>
-      <c r="I6">
-        <v>0.2781953258680067</v>
-      </c>
-      <c r="J6">
-        <v>0.2781953258680067</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.864751</v>
-      </c>
-      <c r="N6">
-        <v>5.594252999999999</v>
-      </c>
-      <c r="O6">
-        <v>0.7328098752209856</v>
-      </c>
-      <c r="P6">
-        <v>0.7328098752209857</v>
-      </c>
-      <c r="Q6">
-        <v>0.04790172368799999</v>
-      </c>
-      <c r="R6">
-        <v>0.4311155131919999</v>
-      </c>
-      <c r="S6">
-        <v>0.2038642820363954</v>
-      </c>
-      <c r="T6">
-        <v>0.2038642820363954</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.025688</v>
-      </c>
-      <c r="H7">
-        <v>0.07706399999999999</v>
-      </c>
-      <c r="I7">
-        <v>0.2781953258680067</v>
-      </c>
-      <c r="J7">
-        <v>0.2781953258680067</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.1927433333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.57823</v>
-      </c>
-      <c r="O7">
-        <v>0.07574427794900063</v>
-      </c>
-      <c r="P7">
-        <v>0.07574427794900064</v>
-      </c>
-      <c r="Q7">
-        <v>0.004951190746666667</v>
-      </c>
-      <c r="R7">
-        <v>0.04456071672</v>
-      </c>
-      <c r="S7">
-        <v>0.0210717040866591</v>
-      </c>
-      <c r="T7">
-        <v>0.0210717040866591</v>
+        <v>0.07046698271172858</v>
       </c>
     </row>
   </sheetData>
